--- a/biology/Botanique/Linter_de_coton/Linter_de_coton.xlsx
+++ b/biology/Botanique/Linter_de_coton/Linter_de_coton.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les linters de coton sont des fibres courtes formant un duvet qui recouvre les graines de cotonniers cultivés. Ces fibres sont en fait des trichomes unicellulaires, qui adhèrent fortement à l'épiderme des  graines. Elle subsistent après l'opération d'égrenage qui consiste à séparer les graines des fibres longues de coton destinées à la filature.
-Les linters représentent de 4 à 8 % de la masse des graines de coton égrenées[1]. L'élimination des linters sur les graines se fait par un procédé mécanique à l'aide de machines « délinteuses »,  analoques aux égreneuses, en plusieurs passes, donnant des fibres de différentes qualités : 
-Certains cultivars issus de Gossypium barbadense produisent des graines naturellement dépourvues de linter[3].
+Les linters représentent de 4 à 8 % de la masse des graines de coton égrenées. L'élimination des linters sur les graines se fait par un procédé mécanique à l'aide de machines « délinteuses »,  analoques aux égreneuses, en plusieurs passes, donnant des fibres de différentes qualités : 
+Certains cultivars issus de Gossypium barbadense produisent des graines naturellement dépourvues de linter.
 Les linters sont majoritairement constitués de cellulose (teneur d'environ 70 à 80 %). Ils sont utilisés pour produire de nombreux dérivés de la cellulose, en particulier dans l'industrie chimique et papetière.
-A l'état brut, ils peuvent être utilisés comme matériau de rembourrage[4].
+A l'état brut, ils peuvent être utilisés comme matériau de rembourrage.
 </t>
         </is>
       </c>
